--- a/0008 User Management/Config/开关映射表.xlsx
+++ b/0008 User Management/Config/开关映射表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="82">
   <si>
     <t>SDTL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,77 @@
   <si>
     <t>S4TL</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JC-J1</t>
+  </si>
+  <si>
+    <t>JC-J1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JC-J2</t>
+  </si>
+  <si>
+    <t>JC-J2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1,JC-J2</t>
+  </si>
+  <si>
+    <t>J1,JC-J2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2,JC-J1</t>
+  </si>
+  <si>
+    <t>J2,JC-J1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t>JC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JC-J3</t>
+  </si>
+  <si>
+    <t>J1,JC-J3</t>
+  </si>
+  <si>
+    <t>J2,JC-J3</t>
+  </si>
+  <si>
+    <t>J3,JC-J1</t>
+  </si>
+  <si>
+    <t>J3,JC-J2</t>
+  </si>
+  <si>
+    <t>JC-J4</t>
+  </si>
+  <si>
+    <t>J1,JC-J4</t>
+  </si>
+  <si>
+    <t>J2,JC-J4</t>
+  </si>
+  <si>
+    <t>J3,JC-J4</t>
+  </si>
+  <si>
+    <t>J4,JC-J1</t>
+  </si>
+  <si>
+    <t>J4,JC-J2</t>
+  </si>
+  <si>
+    <t>J4,JC-J3</t>
   </si>
 </sst>
 </file>
@@ -621,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28:V48"/>
     </sheetView>
   </sheetViews>
@@ -2516,7 +2587,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2565,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2625,7 +2696,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2645,7 +2716,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2665,7 +2736,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2685,7 +2756,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2700,7 +2771,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2736,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -2816,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -2836,7 +2907,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -2856,7 +2927,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
@@ -2876,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -2896,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -2916,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -2936,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
@@ -2956,7 +3027,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -2976,7 +3047,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -2996,7 +3067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -3033,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3133,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -3153,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -3173,7 +3244,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -3193,7 +3264,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -3213,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -3233,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -3253,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -3273,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -3293,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -3313,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
@@ -3333,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -3353,7 +3424,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -3373,7 +3444,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>16</v>
@@ -3393,7 +3464,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>16</v>
@@ -3413,7 +3484,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -3433,7 +3504,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>16</v>
